--- a/attendance/資料/20_基本設計/基本設計.xlsx
+++ b/attendance/資料/20_基本設計/基本設計.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chhrl\git\attendance\attendance\資料\20_基本設計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7919B06-A692-43F2-B4D0-AB3845511D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13140" yWindow="4335" windowWidth="32340" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +57,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,15 +87,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +501,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:39">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3"/>
+    </row>
+    <row r="3" spans="2:39">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="2:39">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5" spans="2:39">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="2:39">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7" spans="2:39">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8" spans="2:39">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9" spans="2:39">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10" spans="2:39">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11" spans="2:39">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12" spans="2:39">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13" spans="2:39">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14" spans="2:39">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15" spans="2:39">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16" spans="2:39">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17" spans="2:39">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18" spans="2:39">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19" spans="2:39">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20" spans="2:39">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21" spans="2:39">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22" spans="2:39">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23" spans="2:39">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24" spans="2:39">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25" spans="2:39">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26" spans="2:39">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/attendance/資料/20_基本設計/基本設計.xlsx
+++ b/attendance/資料/20_基本設計/基本設計.xlsx
@@ -5,15 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chhrl\git\attendance\attendance\資料\20_基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\20_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7919B06-A692-43F2-B4D0-AB3845511D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4700FEA-F73E-4F5F-A9D1-B0FE23EE195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="4335" windowWidth="32340" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7990" yWindow="0" windowWidth="14660" windowHeight="14410" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.ログイン画面" sheetId="2" r:id="rId2"/>
+    <sheet name="ヘッダー" sheetId="3" r:id="rId3"/>
+    <sheet name="2.シフト一覧" sheetId="9" r:id="rId4"/>
+    <sheet name="3.シフト作成画面" sheetId="4" r:id="rId5"/>
+    <sheet name="4.看護師情報登録画面" sheetId="5" r:id="rId6"/>
+    <sheet name="5.往診関連登録画面" sheetId="6" r:id="rId7"/>
+    <sheet name="6.その他設定" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="94">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -44,12 +51,704 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ID</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">シフト表 </t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  〇月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  予定</t>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  実績</t>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20xx年x月</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">名前
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勤務時間</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キンムジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置人数</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>≪往診≫</t>
+    <rPh sb="1" eb="3">
+      <t>オウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名</t>
+    <rPh sb="0" eb="1">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定休み　</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月□</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火□</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水□</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日□</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木□</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金□</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土□</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続勤務数</t>
+    <rPh sb="0" eb="5">
+      <t>レンゾクキンムスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月の勤務上限</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キンムジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続勤務日数</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定休み</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日□ 月□ 火□ </t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 月□ 火□ </t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>水□ 木□ 金□ 土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 金□ 土□</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診周期</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当看護師</t>
+    <rPh sb="0" eb="5">
+      <t>タントウカンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診一覧</t>
+    <rPh sb="0" eb="4">
+      <t>オウシンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師一覧</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休登録</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２・４</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種設定</t>
+    <rPh sb="0" eb="4">
+      <t>カクシュセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業所名</t>
+    <rPh sb="0" eb="4">
+      <t>ジギョウショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  シフト作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト関連</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師情報</t>
+    <rPh sb="0" eb="5">
+      <t>カンゴシジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去データ</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力記号登録</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診対応</t>
+    <rPh sb="0" eb="4">
+      <t>オウシンタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望休</t>
+    <rPh sb="0" eb="3">
+      <t>キボウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤１</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤2</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤3</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示氏名変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苗字のみ</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間登録</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9:00～18:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7:30～18:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7:30～12:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⊕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdf出力</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往診過去データ</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,8 +763,70 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,8 +839,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -204,17 +1025,333 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -222,6 +1359,249 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -504,9 +1884,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:39">
       <c r="B2" s="1"/>
@@ -1518,4 +2900,7981 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D020F-F4CC-4094-A8D3-1C8CC41E857B}">
+  <dimension ref="B2:AL21"/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:38" ht="18" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="2:38" ht="18" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" spans="2:38" ht="18" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" spans="2:38" ht="18" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="2:38" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="2:38" ht="18" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="2:38" ht="18" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="2:38" ht="18" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="2:38" ht="18" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="2:38" ht="18" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="2:38" ht="18" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="2:38" ht="18" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="2:38" ht="18" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="2:38" ht="18" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="81"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="2:38" ht="18" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="2:38" ht="18" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="2:38" ht="18" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="2:38" ht="18" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="2:38" ht="18" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="2:38" ht="18" customHeight="1">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE0DCCF-1E29-43FB-9DB7-6CEB9E5DC13F}">
+  <dimension ref="B2:AL26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:38" ht="18" customHeight="1">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="15"/>
+    </row>
+    <row r="3" spans="2:38" ht="18" customHeight="1">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="18"/>
+    </row>
+    <row r="4" spans="2:38" ht="18" customHeight="1">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="18"/>
+    </row>
+    <row r="5" spans="2:38" ht="18" customHeight="1">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="18"/>
+    </row>
+    <row r="6" spans="2:38" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="2:38" ht="18" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="2:38" ht="18" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="2:38" ht="18" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="2:38" ht="18" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="2:38" ht="18" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="2:38" ht="18" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="2:38" ht="18" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="2:38" ht="18" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="2:38" ht="18" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="2:38" ht="18" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="2:38" ht="18" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="2:38" ht="18" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="2:38" ht="18" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="2:38" ht="18" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="2:38" ht="18" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="2:38" ht="18" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="2:38" ht="18" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="2:38" ht="18" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="2:38" ht="18" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="6"/>
+    </row>
+    <row r="26" spans="2:38" ht="18" customHeight="1">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF5173-2E84-4E0E-AF3F-193229545953}">
+  <dimension ref="B2:AM34"/>
+  <sheetViews>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:39" ht="18" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3"/>
+    </row>
+    <row r="3" spans="2:39" ht="18" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="2:39" ht="18" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5" spans="2:39" ht="18" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39">
+        <v>2</v>
+      </c>
+      <c r="K7" s="39">
+        <v>3</v>
+      </c>
+      <c r="L7" s="39">
+        <v>4</v>
+      </c>
+      <c r="M7" s="39">
+        <v>5</v>
+      </c>
+      <c r="N7" s="39">
+        <v>6</v>
+      </c>
+      <c r="O7" s="39">
+        <v>7</v>
+      </c>
+      <c r="P7" s="39">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>9</v>
+      </c>
+      <c r="R7" s="39">
+        <v>10</v>
+      </c>
+      <c r="S7" s="39">
+        <v>11</v>
+      </c>
+      <c r="T7" s="39">
+        <v>12</v>
+      </c>
+      <c r="U7" s="39">
+        <v>13</v>
+      </c>
+      <c r="V7" s="39">
+        <v>14</v>
+      </c>
+      <c r="W7" s="39">
+        <v>15</v>
+      </c>
+      <c r="X7" s="39">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="39">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="39">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="39">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="39">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="39">
+        <v>21</v>
+      </c>
+      <c r="AD7" s="39">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="39">
+        <v>23</v>
+      </c>
+      <c r="AF7" s="39">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="39">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="39">
+        <v>26</v>
+      </c>
+      <c r="AI7" s="39">
+        <v>27</v>
+      </c>
+      <c r="AJ7" s="39">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="39">
+        <v>29</v>
+      </c>
+      <c r="AL7" s="40">
+        <v>30</v>
+      </c>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL8" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="83">
+        <v>1</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="83">
+        <v>2</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="83">
+        <v>3</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="83">
+        <v>4</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="83">
+        <v>5</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="83">
+        <v>6</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24" spans="2:39" ht="18" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25" spans="2:39" ht="18" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27" spans="2:39" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B27" s="4"/>
+      <c r="C27" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29" spans="2:39" ht="18" customHeight="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="6"/>
+    </row>
+    <row r="30" spans="2:39" ht="18" customHeight="1" thickBot="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="31" spans="2:39" ht="18" customHeight="1" thickTop="1">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD31" s="129"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="6"/>
+    </row>
+    <row r="32" spans="2:39" ht="18" customHeight="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33" spans="2:39" ht="18" customHeight="1">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34" spans="2:39" ht="18" customHeight="1">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="C23:H26"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C27:H30"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="D19:F20"/>
+    <mergeCell ref="D21:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93015D8E-71F6-455D-91E9-D826793DFCA6}">
+  <dimension ref="B2:AL25"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="13" max="13" width="3.08203125" style="114"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:38" ht="18" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="2:38" ht="18" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" spans="2:38" ht="18" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" spans="2:38" ht="18" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="2:38" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="2:38" ht="18" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="2:38" ht="18" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="122"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="2:38" ht="18" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="51">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="2:38" ht="18" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="2:38" ht="18" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="2:38" ht="18" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="2:38" ht="18" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="51">
+        <v>2</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="2:38" ht="18" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="2:38" ht="18" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="2:38" ht="18" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="2:38" ht="18" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="51">
+        <v>3</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="2:38" ht="18" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="2:38" ht="18" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="2:38" ht="18" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="2:38" ht="18" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="51">
+        <v>4</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="2:38" ht="18" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="2:38" ht="18" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="2:38" ht="18" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="2:38" ht="18" customHeight="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEAD32E-FB0A-4531-BC5A-2662352598D5}">
+  <dimension ref="B2:AL28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:38" ht="18" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="2:38" ht="18" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" spans="2:38" ht="18" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" spans="2:38" ht="18" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="2:38" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="AA6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="2:38" ht="18" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="2:38" ht="18" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="73">
+        <v>0.375</v>
+      </c>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8" s="73">
+        <v>0.75</v>
+      </c>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="2:38" ht="18" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="2:38" ht="18" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="2:38" ht="18" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="2:38" ht="18" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="51">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="2:38" ht="18" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="2:38" ht="18" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="2:38" ht="18" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="51">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA15" s="73">
+        <v>0.375</v>
+      </c>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="73">
+        <v>0.75</v>
+      </c>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="2:38" ht="18" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="2:38" ht="18" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="2:38" ht="18" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="2:38" ht="18" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="2:38" ht="18" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="2:38" ht="18" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="2:38" ht="18" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="2:38" ht="18" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="2:38" ht="18" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="2:38" ht="18" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="6"/>
+    </row>
+    <row r="26" spans="2:38" ht="18" customHeight="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="6"/>
+    </row>
+    <row r="27" spans="2:38" ht="18" customHeight="1">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="6"/>
+    </row>
+    <row r="28" spans="2:38" ht="18" customHeight="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AD15:AE15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5ECC7C-1D82-4E64-9D04-399D3F55E02E}">
+  <dimension ref="A2:AL30"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="1:38" ht="18" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="1:38" ht="18" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" spans="1:38" ht="18" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" spans="1:38" ht="18" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="1:38" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="P6" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="1:38" ht="18" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="1:38" ht="18" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="90"/>
+      <c r="S8" s="73">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T8" s="109"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="1:38" ht="18" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5">
+        <v>2</v>
+      </c>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="113"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="1:38" ht="18" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5">
+        <v>3</v>
+      </c>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="1:38" ht="18" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="1:38" ht="18" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="51">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="90"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="1:38" ht="18" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="1:38" ht="18" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5">
+        <v>3</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="1:38" ht="18" customHeight="1">
+      <c r="A15" s="112"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="116"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="1:38" ht="18" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="51">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="90"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="2:38" ht="18" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5">
+        <v>2</v>
+      </c>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="2:38" ht="18" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5">
+        <v>3</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="51"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="51">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="90"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="93"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="51"/>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AK21" s="115"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="51"/>
+      <c r="W22" s="5">
+        <v>3</v>
+      </c>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="72"/>
+      <c r="AH22" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI22" s="70"/>
+      <c r="AK22" s="111"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="51"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="2:38" ht="18" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="2:38" ht="18" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="6"/>
+    </row>
+    <row r="26" spans="2:38" ht="18" customHeight="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="89"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="6"/>
+    </row>
+    <row r="27" spans="2:38" ht="18" customHeight="1">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="90"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="6"/>
+    </row>
+    <row r="28" spans="2:38" ht="18" customHeight="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="6"/>
+    </row>
+    <row r="29" spans="2:38" ht="18" customHeight="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="6"/>
+    </row>
+    <row r="30" spans="2:38" ht="18" customHeight="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="C3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2401095-4CB0-46D9-AD1E-6DD2CA167754}">
+  <dimension ref="B2:AL31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="19" max="20" width="3.08203125" style="114"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:38" ht="18" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="2:38" ht="18" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" spans="2:38" ht="18" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" spans="2:38" ht="18" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="2:38" ht="18" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" spans="2:38" ht="18" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="2:38" ht="18" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" spans="2:38" ht="18" customHeight="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" spans="2:38" ht="18" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" spans="2:38" ht="18" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="2:38" ht="18" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="13" spans="2:38" ht="18" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="51"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="2:38" ht="18" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+    </row>
+    <row r="15" spans="2:38" ht="18" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6"/>
+    </row>
+    <row r="16" spans="2:38" ht="18" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="2:38" ht="18" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="2:38" ht="18" customHeight="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="2:38" ht="18" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="2:38" ht="18" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="2:38" ht="18" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="2:38" ht="18" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="2:38" ht="18" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="2:38" ht="18" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="2:38" ht="18" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="6"/>
+    </row>
+    <row r="26" spans="2:38" ht="18" customHeight="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="6"/>
+    </row>
+    <row r="27" spans="2:38" ht="18" customHeight="1">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="6"/>
+    </row>
+    <row r="28" spans="2:38" ht="18" customHeight="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="6"/>
+    </row>
+    <row r="29" spans="2:38" ht="18" customHeight="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="6"/>
+    </row>
+    <row r="30" spans="2:38" ht="18" customHeight="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="6"/>
+    </row>
+    <row r="31" spans="2:38" ht="18" customHeight="1">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:S17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/attendance/資料/20_基本設計/基本設計.xlsx
+++ b/attendance/資料/20_基本設計/基本設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\20_基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chhrl\git\attendance\attendance\資料\20_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4700FEA-F73E-4F5F-A9D1-B0FE23EE195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC360415-35E2-452A-90DF-B47FA9DD913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7990" yWindow="0" windowWidth="14660" windowHeight="14410" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="4.看護師情報登録画面" sheetId="5" r:id="rId6"/>
     <sheet name="5.往診関連登録画面" sheetId="6" r:id="rId7"/>
     <sheet name="6.その他設定" sheetId="7" r:id="rId8"/>
+    <sheet name="DB準備" sheetId="10" r:id="rId9"/>
+    <sheet name="テーブル一覧" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -742,6 +744,192 @@
       <t>カコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Database設定　使用まで</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル日本語名</t>
+    <rPh sb="4" eb="8">
+      <t>ニホンゴメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M_USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁</t>
+    <rPh sb="0" eb="1">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotNull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMPANY_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDL(自動作成)</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create table M_USER(</t>
+  </si>
+  <si>
+    <t>DDL(実際に流すもの)</t>
+    <rPh sb="4" eb="6">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_ID VARCHAR(6) NOT NULL PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>USER_NAME VARCHAR(30),</t>
+  </si>
+  <si>
+    <t>COMPANY_ID VARCHAR(6),</t>
+  </si>
+  <si>
+    <t>CREATE_DATE DATE,</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASSWORD VARCHAR(20),</t>
+  </si>
+  <si>
+    <t>Insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into m_user (USER_ID, PASSWORD, USER_NAME, COMPANY_ID, CREATE_DATE) values ("100001", "test", "テストユーザ", "開発用", "2025/05/18");</t>
   </si>
 </sst>
 </file>
@@ -826,7 +1014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +1084,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1411,6 +1605,102 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1438,31 +1728,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,71 +1745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1554,52 +1764,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1617,6 +1806,391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>10523</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1291CC-0E56-34D5-64C5-C1FFFDAA7941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="714375"/>
+          <a:ext cx="7154273" cy="5611008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232BBB8E-59E6-2858-2091-1EA4021B0BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="4219575"/>
+          <a:ext cx="1047750" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056C9151-8364-95B2-ACA0-7F59900E6C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="3609974"/>
+          <a:ext cx="2628900" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -92935"/>
+            <a:gd name="adj2" fmla="val 50203"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以下を実行で作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>create database attendance;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19352</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E267C6A-193D-2BA9-7950-ED7220B60B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="6667500"/>
+          <a:ext cx="2162477" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA3024-2D28-45A9-A565-045ABD181389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847724" y="6667500"/>
+          <a:ext cx="1304925" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C02705-451C-42B4-B101-8D58C67965E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="6677025"/>
+          <a:ext cx="2628900" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76993"/>
+            <a:gd name="adj2" fmla="val -30316"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Database</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を使用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>use attendance;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1888,7 +2462,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:39">
       <c r="B2" s="1"/>
@@ -2902,6 +3476,303 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628C4E1-1195-4B3F-853F-87CD375F0317}">
+  <dimension ref="B2:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="3.125" customWidth="1"/>
+    <col min="3" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" s="79" customFormat="1">
+      <c r="B2" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" s="79" customFormat="1">
+      <c r="B14" s="79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="str">
+        <f>"create table "&amp; C16 &amp; "("</f>
+        <v>create table M_USER(</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="80">
+        <v>1</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="80">
+        <v>6</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="str">
+        <f>C19 &amp; " " &amp; D19 &amp; "(" &amp; E19 &amp; ")" &amp; IF(F19="-","","default"&amp; " " &amp; F19) &amp; ","</f>
+        <v>USER_ID VARCHAR(6),</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="80">
+        <v>2</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="80">
+        <v>20</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="K20" t="str">
+        <f>C20 &amp; " " &amp; D20 &amp; "(" &amp; E20 &amp; ")" &amp; IF(F20="-","","default"&amp; " " &amp; F20) &amp; ","</f>
+        <v>PASSWORD VARCHAR(20),</v>
+      </c>
+      <c r="O20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="80">
+        <v>3</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="80">
+        <v>30</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="K21" t="str">
+        <f t="shared" ref="K21:K24" si="0">C21 &amp; " " &amp; D21 &amp; "(" &amp; E21 &amp; ")" &amp; IF(F21="-","","default"&amp; " " &amp; F21) &amp; ","</f>
+        <v>USER_NAME VARCHAR(30),</v>
+      </c>
+      <c r="O21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="80">
+        <v>4</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="80">
+        <v>6</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPANY_ID VARCHAR(6),</v>
+      </c>
+      <c r="O22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="80">
+        <v>5</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>CREATE_DATE DATE(-),</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="80">
+        <v>6</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE_DATE DATE(-),</v>
+      </c>
+      <c r="O24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="K25" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D020F-F4CC-4094-A8D3-1C8CC41E857B}">
   <dimension ref="B2:AL21"/>
@@ -2910,7 +3781,7 @@
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -3446,11 +4317,11 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="80" t="s">
+      <c r="V15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="81"/>
-      <c r="X15" s="82"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="55"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -3714,7 +4585,7 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
       <c r="B2" s="13"/>
@@ -3759,13 +4630,13 @@
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
@@ -3800,11 +4671,11 @@
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -3819,24 +4690,24 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
-      <c r="X4" s="85" t="s">
+      <c r="X4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="86" t="s">
+      <c r="AB4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="88"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
       <c r="AE4" s="17"/>
-      <c r="AF4" s="86" t="s">
+      <c r="AF4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="88"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="59"/>
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
       <c r="AL4" s="18"/>
@@ -4716,7 +5587,7 @@
       <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:39" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -4926,12 +5797,12 @@
     </row>
     <row r="7" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B7" s="4"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="37"/>
       <c r="H7" s="35"/>
       <c r="I7" s="39">
@@ -5028,10 +5899,10 @@
     </row>
     <row r="8" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="4"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="38"/>
       <c r="H8" s="36"/>
       <c r="I8" s="41" t="s">
@@ -5128,14 +5999,14 @@
     </row>
     <row r="9" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B9" s="4"/>
-      <c r="C9" s="83">
+      <c r="C9" s="110">
         <v>1</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="30" t="s">
         <v>21</v>
       </c>
@@ -5174,10 +6045,10 @@
     </row>
     <row r="10" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B10" s="4"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -5216,14 +6087,14 @@
     </row>
     <row r="11" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B11" s="4"/>
-      <c r="C11" s="83">
+      <c r="C11" s="110">
         <v>2</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="33" t="s">
         <v>21</v>
       </c>
@@ -5262,10 +6133,10 @@
     </row>
     <row r="12" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="34" t="s">
         <v>22</v>
       </c>
@@ -5304,14 +6175,14 @@
     </row>
     <row r="13" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B13" s="4"/>
-      <c r="C13" s="83">
+      <c r="C13" s="110">
         <v>3</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="33" t="s">
         <v>21</v>
       </c>
@@ -5350,10 +6221,10 @@
     </row>
     <row r="14" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="4"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="34" t="s">
         <v>22</v>
       </c>
@@ -5392,14 +6263,14 @@
     </row>
     <row r="15" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B15" s="4"/>
-      <c r="C15" s="83">
+      <c r="C15" s="110">
         <v>4</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="33" t="s">
         <v>21</v>
       </c>
@@ -5438,10 +6309,10 @@
     </row>
     <row r="16" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B16" s="4"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="34" t="s">
         <v>22</v>
       </c>
@@ -5480,14 +6351,14 @@
     </row>
     <row r="17" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="83">
+      <c r="C17" s="110">
         <v>5</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="33" t="s">
         <v>21</v>
       </c>
@@ -5526,10 +6397,10 @@
     </row>
     <row r="18" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B18" s="4"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="34" t="s">
         <v>22</v>
       </c>
@@ -5568,14 +6439,14 @@
     </row>
     <row r="19" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B19" s="4"/>
-      <c r="C19" s="83">
+      <c r="C19" s="110">
         <v>6</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="33" t="s">
         <v>21</v>
       </c>
@@ -5614,10 +6485,10 @@
     </row>
     <row r="20" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="34" t="s">
         <v>22</v>
       </c>
@@ -5657,11 +6528,11 @@
     <row r="21" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B21" s="4"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="33" t="s">
         <v>21</v>
       </c>
@@ -5701,9 +6572,9 @@
     <row r="22" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B22" s="4"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="34" t="s">
         <v>22</v>
       </c>
@@ -5742,14 +6613,14 @@
     </row>
     <row r="23" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B23" s="4"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="28"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
@@ -5784,12 +6655,12 @@
     </row>
     <row r="24" spans="2:39" ht="18" customHeight="1">
       <c r="B24" s="4"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="44"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5824,12 +6695,12 @@
     </row>
     <row r="25" spans="2:39" ht="18" customHeight="1">
       <c r="B25" s="4"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="44"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5864,12 +6735,12 @@
     </row>
     <row r="26" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B26" s="4"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
       <c r="I26" s="29"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -5904,14 +6775,14 @@
     </row>
     <row r="27" spans="2:39" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B27" s="4"/>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
       <c r="I27" s="47" t="s">
         <v>28</v>
       </c>
@@ -5948,12 +6819,12 @@
     </row>
     <row r="28" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B28" s="4"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
       <c r="I28" s="28"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -5988,12 +6859,12 @@
     </row>
     <row r="29" spans="2:39" ht="18" customHeight="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="44"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -6028,12 +6899,12 @@
     </row>
     <row r="30" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B30" s="4"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109"/>
       <c r="I30" s="29"/>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -6094,17 +6965,17 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="128" t="s">
+      <c r="AC31" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="130"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="131" t="s">
+      <c r="AG31" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="99"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -6232,7 +7103,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="AG31:AI31"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C23:H26"/>
@@ -6250,6 +7120,7 @@
     <mergeCell ref="D17:F18"/>
     <mergeCell ref="D19:F20"/>
     <mergeCell ref="D21:F22"/>
+    <mergeCell ref="AC31:AE31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6264,9 +7135,9 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="13" max="13" width="3.08203125" style="114"/>
+    <col min="13" max="13" width="3.125" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
@@ -6281,7 +7152,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="91"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -6310,57 +7181,57 @@
     </row>
     <row r="3" spans="2:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
       <c r="AL3" s="6"/>
     </row>
     <row r="4" spans="2:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="90"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
         <v>11</v>
@@ -6374,35 +7245,35 @@
       <c r="U4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
       <c r="AL4" s="6"/>
     </row>
     <row r="5" spans="2:38" ht="18" customHeight="1">
       <c r="B5" s="4"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="51"/>
       <c r="N5" s="5"/>
@@ -6433,15 +7304,15 @@
     </row>
     <row r="6" spans="2:38" ht="18" customHeight="1">
       <c r="B6" s="4"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="51"/>
       <c r="N6" s="5"/>
@@ -6476,15 +7347,15 @@
     </row>
     <row r="7" spans="2:38" ht="18" customHeight="1">
       <c r="B7" s="4"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="51"/>
       <c r="N7" s="5"/>
@@ -6515,15 +7386,15 @@
     </row>
     <row r="8" spans="2:38" ht="18" customHeight="1">
       <c r="B8" s="4"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="51"/>
       <c r="N8" s="5"/>
@@ -6534,11 +7405,11 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="125" t="s">
+      <c r="V8" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="122"/>
-      <c r="X8" s="123"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="74"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -6556,15 +7427,15 @@
     </row>
     <row r="9" spans="2:38" ht="18" customHeight="1">
       <c r="B9" s="4"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="51">
         <v>1</v>
@@ -6577,8 +7448,8 @@
       <c r="S9" s="12"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="90"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -6597,15 +7468,15 @@
     </row>
     <row r="10" spans="2:38" ht="18" customHeight="1">
       <c r="B10" s="4"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="51"/>
       <c r="N10" s="5"/>
@@ -6636,15 +7507,15 @@
     </row>
     <row r="11" spans="2:38" ht="18" customHeight="1">
       <c r="B11" s="4"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="51"/>
       <c r="N11" s="5"/>
@@ -6655,9 +7526,9 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -6675,15 +7546,15 @@
     </row>
     <row r="12" spans="2:38" ht="18" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="51"/>
       <c r="N12" s="5"/>
@@ -6694,9 +7565,9 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="123"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="74"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -6714,15 +7585,15 @@
     </row>
     <row r="13" spans="2:38" ht="18" customHeight="1">
       <c r="B13" s="4"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="51">
         <v>2</v>
@@ -6736,7 +7607,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="90"/>
+      <c r="W13" s="5"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -6755,15 +7626,15 @@
     </row>
     <row r="14" spans="2:38" ht="18" customHeight="1">
       <c r="B14" s="4"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="51"/>
       <c r="N14" s="5"/>
@@ -6794,15 +7665,15 @@
     </row>
     <row r="15" spans="2:38" ht="18" customHeight="1">
       <c r="B15" s="4"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="51"/>
       <c r="N15" s="5"/>
@@ -6813,9 +7684,9 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -6833,15 +7704,15 @@
     </row>
     <row r="16" spans="2:38" ht="18" customHeight="1">
       <c r="B16" s="4"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="51"/>
       <c r="N16" s="5"/>
@@ -6852,9 +7723,9 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="123"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="74"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -6872,15 +7743,15 @@
     </row>
     <row r="17" spans="2:38" ht="18" customHeight="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="51">
         <v>3</v>
@@ -6894,7 +7765,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="90"/>
+      <c r="W17" s="5"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -6913,15 +7784,15 @@
     </row>
     <row r="18" spans="2:38" ht="18" customHeight="1">
       <c r="B18" s="4"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="51"/>
       <c r="N18" s="5"/>
@@ -6952,15 +7823,15 @@
     </row>
     <row r="19" spans="2:38" ht="18" customHeight="1">
       <c r="B19" s="4"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="51"/>
       <c r="N19" s="5"/>
@@ -6971,9 +7842,9 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
@@ -6991,15 +7862,15 @@
     </row>
     <row r="20" spans="2:38" ht="18" customHeight="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="51"/>
       <c r="N20" s="5"/>
@@ -7010,9 +7881,9 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="123"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="74"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -7030,15 +7901,15 @@
     </row>
     <row r="21" spans="2:38" ht="18" customHeight="1">
       <c r="B21" s="4"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="51">
         <v>4</v>
@@ -7052,7 +7923,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="90"/>
+      <c r="W21" s="5"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -7071,15 +7942,15 @@
     </row>
     <row r="22" spans="2:38" ht="18" customHeight="1">
       <c r="B22" s="4"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="51"/>
       <c r="N22" s="5"/>
@@ -7098,12 +7969,12 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="118" t="s">
+      <c r="AD22" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AE22" s="119"/>
-      <c r="AF22" s="119"/>
-      <c r="AG22" s="120"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="71"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
@@ -7112,15 +7983,15 @@
     </row>
     <row r="23" spans="2:38" ht="18" customHeight="1">
       <c r="B23" s="4"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="51"/>
       <c r="N23" s="5"/>
@@ -7151,15 +8022,15 @@
     </row>
     <row r="24" spans="2:38" ht="18" customHeight="1">
       <c r="B24" s="4"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="51"/>
       <c r="N24" s="5"/>
@@ -7200,7 +8071,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="89"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -7241,7 +8112,7 @@
       <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -7284,121 +8155,121 @@
     </row>
     <row r="3" spans="2:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
       <c r="AL3" s="6"/>
     </row>
     <row r="4" spans="2:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
       <c r="AL4" s="6"/>
     </row>
     <row r="5" spans="2:38" ht="18" customHeight="1">
       <c r="B5" s="4"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
       <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="2:38" ht="18" customHeight="1">
@@ -7524,17 +8395,17 @@
       <c r="Z8" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="73">
+      <c r="AA8" s="112">
         <v>0.375</v>
       </c>
-      <c r="AB8" s="74"/>
+      <c r="AB8" s="113"/>
       <c r="AC8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="73">
+      <c r="AD8" s="112">
         <v>0.75</v>
       </c>
-      <c r="AE8" s="74"/>
+      <c r="AE8" s="113"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -7624,15 +8495,15 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="72"/>
+      <c r="AH10" s="115"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="69" t="s">
+      <c r="AJ10" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AK10" s="70"/>
+      <c r="AK10" s="123"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="2:38" ht="18" customHeight="1">
@@ -7758,15 +8629,15 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="71" t="s">
+      <c r="AG13" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AH13" s="72"/>
+      <c r="AH13" s="115"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="69" t="s">
+      <c r="AJ13" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" s="70"/>
+      <c r="AK13" s="123"/>
       <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="2:38" ht="18" customHeight="1">
@@ -7844,17 +8715,17 @@
       <c r="Z15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="AA15" s="112">
         <v>0.375</v>
       </c>
-      <c r="AB15" s="74"/>
+      <c r="AB15" s="113"/>
       <c r="AC15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AD15" s="73">
+      <c r="AD15" s="112">
         <v>0.75</v>
       </c>
-      <c r="AE15" s="74"/>
+      <c r="AE15" s="113"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -7901,15 +8772,15 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="71" t="s">
+      <c r="AG16" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="72"/>
+      <c r="AH16" s="115"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="69" t="s">
+      <c r="AJ16" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="70"/>
+      <c r="AK16" s="123"/>
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:38" ht="18" customHeight="1">
@@ -8085,19 +8956,19 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="75" t="s">
+      <c r="R21" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -8308,7 +9179,7 @@
         <v>47</v>
       </c>
       <c r="K26" s="11"/>
-      <c r="L26" s="92" t="s">
+      <c r="L26" s="62" t="s">
         <v>44</v>
       </c>
       <c r="M26" s="11"/>
@@ -8323,7 +9194,7 @@
         <v>47</v>
       </c>
       <c r="S26" s="11"/>
-      <c r="T26" s="92" t="s">
+      <c r="T26" s="62" t="s">
         <v>44</v>
       </c>
       <c r="U26" s="11"/>
@@ -8338,7 +9209,7 @@
         <v>47</v>
       </c>
       <c r="AA26" s="11"/>
-      <c r="AB26" s="92" t="s">
+      <c r="AB26" s="62" t="s">
         <v>44</v>
       </c>
       <c r="AC26" s="11"/>
@@ -8387,12 +9258,12 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="77" t="s">
+      <c r="AH27" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="79"/>
+      <c r="AI27" s="127"/>
+      <c r="AJ27" s="127"/>
+      <c r="AK27" s="128"/>
       <c r="AL27" s="6"/>
     </row>
     <row r="28" spans="2:38" ht="18" customHeight="1">
@@ -8436,11 +9307,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="C3:H4"/>
-    <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AJ16:AK16"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="N21:P21"/>
@@ -8450,6 +9316,11 @@
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="AG16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8464,7 +9335,7 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:38" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -8507,14 +9378,14 @@
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -8548,12 +9419,12 @@
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -8601,24 +9472,24 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
@@ -8642,7 +9513,7 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="51" t="s">
         <v>60</v>
       </c>
       <c r="Q6" s="5"/>
@@ -8654,19 +9525,18 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90" t="s">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
@@ -8694,18 +9564,18 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
@@ -8733,15 +9603,15 @@
       <c r="P8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="90" t="s">
+      <c r="Q8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="90"/>
-      <c r="S8" s="73">
+      <c r="R8" s="5"/>
+      <c r="S8" s="112">
         <v>0.58333333333333337</v>
       </c>
-      <c r="T8" s="109"/>
-      <c r="U8" s="74"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="113"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5">
         <v>1</v>
@@ -8751,13 +9621,13 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="12"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="113"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="19"/>
       <c r="AL8" s="6"/>
@@ -8792,15 +9662,15 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="12"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="116"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="68"/>
       <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="1:38" ht="18" customHeight="1">
@@ -8833,19 +9703,19 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="12"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="71" t="s">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="72"/>
+      <c r="AF10" s="115"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="69" t="s">
+      <c r="AH10" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="70"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="117"/>
+      <c r="AI10" s="123"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="68"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="1:38" ht="18" customHeight="1">
@@ -8869,21 +9739,21 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="113"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="116"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="68"/>
       <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="1:38" ht="18" customHeight="1">
@@ -8904,10 +9774,10 @@
       <c r="N12" s="12"/>
       <c r="O12" s="5"/>
       <c r="P12" s="48"/>
-      <c r="Q12" s="90" t="s">
+      <c r="Q12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="90"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="10"/>
       <c r="T12" s="11"/>
       <c r="U12" s="12"/>
@@ -8920,15 +9790,15 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="116"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="68"/>
       <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1">
@@ -8961,15 +9831,15 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="117"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="68"/>
       <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="1:38" ht="18" customHeight="1">
@@ -9002,59 +9872,59 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="12"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="71" t="s">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="72"/>
+      <c r="AF14" s="115"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="69" t="s">
+      <c r="AH14" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="116"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="68"/>
       <c r="AL14" s="6"/>
     </row>
     <row r="15" spans="1:38" ht="18" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="116"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="68"/>
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="1:38" ht="18" customHeight="1">
@@ -9075,10 +9945,10 @@
       <c r="N16" s="12"/>
       <c r="O16" s="5"/>
       <c r="P16" s="48"/>
-      <c r="Q16" s="90" t="s">
+      <c r="Q16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R16" s="90"/>
+      <c r="R16" s="5"/>
       <c r="S16" s="10"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
@@ -9091,15 +9961,15 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="12"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="117"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="68"/>
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:38" ht="18" customHeight="1">
@@ -9132,15 +10002,15 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="116"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="68"/>
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:38" ht="18" customHeight="1">
@@ -9173,36 +10043,29 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="71" t="s">
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="72"/>
+      <c r="AF18" s="115"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="69" t="s">
+      <c r="AH18" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="70"/>
+      <c r="AI18" s="123"/>
       <c r="AJ18" s="5"/>
-      <c r="AK18" s="116"/>
+      <c r="AK18" s="68"/>
       <c r="AL18" s="6"/>
     </row>
     <row r="19" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="B19" s="4"/>
       <c r="C19" s="51"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AK19" s="116"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AK19" s="68"/>
       <c r="AL19" s="6"/>
     </row>
     <row r="20" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
@@ -9220,10 +10083,9 @@
       <c r="M20" s="11"/>
       <c r="N20" s="12"/>
       <c r="P20" s="48"/>
-      <c r="Q20" s="90" t="s">
+      <c r="Q20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R20" s="90"/>
       <c r="S20" s="10"/>
       <c r="T20" s="11"/>
       <c r="U20" s="12"/>
@@ -9235,14 +10097,9 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="93"/>
-      <c r="AK20" s="115"/>
+      <c r="AE20" s="50"/>
+      <c r="AI20" s="51"/>
+      <c r="AK20" s="67"/>
       <c r="AL20" s="6"/>
     </row>
     <row r="21" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
@@ -9256,14 +10113,7 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AK21" s="115"/>
+      <c r="AK21" s="67"/>
       <c r="AL21" s="6"/>
     </row>
     <row r="22" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
@@ -9277,33 +10127,24 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="71" t="s">
+      <c r="AE22" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="72"/>
-      <c r="AH22" s="69" t="s">
+      <c r="AF22" s="115"/>
+      <c r="AH22" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="70"/>
-      <c r="AK22" s="111"/>
+      <c r="AI22" s="123"/>
+      <c r="AK22" s="64"/>
       <c r="AL22" s="6"/>
     </row>
     <row r="23" spans="2:38" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="B23" s="4"/>
       <c r="C23" s="51"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
       <c r="AL23" s="6"/>
     </row>
     <row r="24" spans="2:38" ht="18" customHeight="1">
@@ -9404,11 +10245,11 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="89" t="s">
+      <c r="Q26" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="89"/>
-      <c r="S26" s="93"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="51"/>
       <c r="T26" s="5" t="s">
         <v>67</v>
       </c>
@@ -9455,7 +10296,7 @@
       <c r="R27" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="90"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="10"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
@@ -9506,7 +10347,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="90"/>
+      <c r="Y28" s="5"/>
       <c r="Z28" s="5">
         <v>2</v>
       </c>
@@ -9518,7 +10359,7 @@
       <c r="AF28" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AG28" s="90"/>
+      <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
@@ -9547,9 +10388,9 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="90"/>
+      <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="90"/>
+      <c r="Y29" s="5"/>
       <c r="Z29" s="5">
         <v>3</v>
       </c>
@@ -9561,12 +10402,12 @@
       <c r="AF29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="77" t="s">
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="79"/>
+      <c r="AI29" s="127"/>
+      <c r="AJ29" s="128"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="6"/>
     </row>
@@ -9611,6 +10452,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="C3:H4"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AH22:AI22"/>
@@ -9620,8 +10463,6 @@
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="C3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9632,13 +10473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2401095-4CB0-46D9-AD1E-6DD2CA167754}">
   <dimension ref="B2:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="19" max="20" width="3.08203125" style="114"/>
+    <col min="19" max="20" width="3.125" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
@@ -9659,8 +10500,8 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -9682,14 +10523,14 @@
     </row>
     <row r="3" spans="2:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -9723,12 +10564,12 @@
     </row>
     <row r="4" spans="2:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -9842,11 +10683,11 @@
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -10108,7 +10949,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="77" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="5"/>
@@ -10207,12 +11048,12 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="110" t="s">
+      <c r="P15" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="74"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="51"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -10248,12 +11089,12 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="74"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="113"/>
       <c r="T16" s="51"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -10289,12 +11130,12 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="74"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="113"/>
       <c r="T17" s="51"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -10399,7 +11240,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="126" t="s">
+      <c r="E20" s="77" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="5"/>
@@ -10846,8 +11687,8 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -10877,4 +11718,24 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96893A12-5BC5-43FF-A3B1-B33E7FDC7DBA}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2" s="79" customFormat="1">
+      <c r="B2" s="79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/attendance/資料/20_基本設計/基本設計.xlsx
+++ b/attendance/資料/20_基本設計/基本設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chhrl\git\attendance\attendance\資料\20_基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami03\git\attendance\attendance\資料\20_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC360415-35E2-452A-90DF-B47FA9DD913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB4D068-8E21-4CE2-AE5C-1D630BA29C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,9 +889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create table M_USER(</t>
-  </si>
-  <si>
     <t>DDL(実際に流すもの)</t>
     <rPh sb="4" eb="6">
       <t>ジッサイ</t>
@@ -929,7 +926,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>insert into m_user (USER_ID, PASSWORD, USER_NAME, COMPANY_ID, CREATE_DATE) values ("100001", "test", "テストユーザ", "開発用", "2025/05/18");</t>
+    <t>create table M_USER(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into m_user (USER_ID, PASSWORD, USER_NAME, COMPANY_ID, CREATE_DATE) values ("100001", "test", "テストユーザ", "000001", "2025/05/18");</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1662,8 +1664,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1678,27 +1689,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,35 +1724,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1784,6 +1756,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2462,7 +2464,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:39">
       <c r="B2" s="1"/>
@@ -3480,17 +3482,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C628C4E1-1195-4B3F-853F-87CD375F0317}">
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.125" customWidth="1"/>
+    <col min="1" max="2" width="3.08203125" customWidth="1"/>
     <col min="3" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" s="79" customFormat="1">
@@ -3543,7 +3547,7 @@
         <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -3576,7 +3580,7 @@
         <v>create table M_USER(</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -3609,7 +3613,7 @@
         <v>USER_ID VARCHAR(6),</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -3617,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="80" t="s">
         <v>114</v>
@@ -3638,7 +3642,7 @@
         <v>PASSWORD VARCHAR(20),</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -3665,7 +3669,7 @@
         <v>USER_NAME VARCHAR(30),</v>
       </c>
       <c r="O21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -3692,7 +3696,7 @@
         <v>COMPANY_ID VARCHAR(6),</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -3719,7 +3723,7 @@
         <v>CREATE_DATE DATE(-),</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -3746,7 +3750,7 @@
         <v>UPDATE_DATE DATE(-),</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -3759,7 +3763,7 @@
     </row>
     <row r="26" spans="2:15">
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -3781,7 +3785,7 @@
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -4585,7 +4589,7 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
       <c r="B2" s="13"/>
@@ -5587,7 +5591,7 @@
       <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:39" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -5797,12 +5801,12 @@
     </row>
     <row r="7" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B7" s="4"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="37"/>
       <c r="H7" s="35"/>
       <c r="I7" s="39">
@@ -5899,10 +5903,10 @@
     </row>
     <row r="8" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="4"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="38"/>
       <c r="H8" s="36"/>
       <c r="I8" s="41" t="s">
@@ -5999,14 +6003,14 @@
     </row>
     <row r="9" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B9" s="4"/>
-      <c r="C9" s="110">
+      <c r="C9" s="106">
         <v>1</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="30" t="s">
         <v>21</v>
       </c>
@@ -6045,10 +6049,10 @@
     </row>
     <row r="10" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B10" s="4"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
@@ -6087,14 +6091,14 @@
     </row>
     <row r="11" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B11" s="4"/>
-      <c r="C11" s="110">
+      <c r="C11" s="106">
         <v>2</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="33" t="s">
         <v>21</v>
       </c>
@@ -6133,10 +6137,10 @@
     </row>
     <row r="12" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B12" s="4"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="34" t="s">
         <v>22</v>
       </c>
@@ -6175,14 +6179,14 @@
     </row>
     <row r="13" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B13" s="4"/>
-      <c r="C13" s="110">
+      <c r="C13" s="106">
         <v>3</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="33" t="s">
         <v>21</v>
       </c>
@@ -6221,10 +6225,10 @@
     </row>
     <row r="14" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="4"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="34" t="s">
         <v>22</v>
       </c>
@@ -6263,14 +6267,14 @@
     </row>
     <row r="15" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B15" s="4"/>
-      <c r="C15" s="110">
+      <c r="C15" s="106">
         <v>4</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="33" t="s">
         <v>21</v>
       </c>
@@ -6309,10 +6313,10 @@
     </row>
     <row r="16" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B16" s="4"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="34" t="s">
         <v>22</v>
       </c>
@@ -6351,14 +6355,14 @@
     </row>
     <row r="17" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="110">
+      <c r="C17" s="106">
         <v>5</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="33" t="s">
         <v>21</v>
       </c>
@@ -6397,10 +6401,10 @@
     </row>
     <row r="18" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B18" s="4"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="34" t="s">
         <v>22</v>
       </c>
@@ -6439,14 +6443,14 @@
     </row>
     <row r="19" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B19" s="4"/>
-      <c r="C19" s="110">
+      <c r="C19" s="106">
         <v>6</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="33" t="s">
         <v>21</v>
       </c>
@@ -6485,10 +6489,10 @@
     </row>
     <row r="20" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="34" t="s">
         <v>22</v>
       </c>
@@ -6528,11 +6532,11 @@
     <row r="21" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B21" s="4"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="33" t="s">
         <v>21</v>
       </c>
@@ -6572,9 +6576,9 @@
     <row r="22" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B22" s="4"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="34" t="s">
         <v>22</v>
       </c>
@@ -6613,14 +6617,14 @@
     </row>
     <row r="23" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B23" s="4"/>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="28"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
@@ -6655,12 +6659,12 @@
     </row>
     <row r="24" spans="2:39" ht="18" customHeight="1">
       <c r="B24" s="4"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="102"/>
       <c r="I24" s="44"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -6695,12 +6699,12 @@
     </row>
     <row r="25" spans="2:39" ht="18" customHeight="1">
       <c r="B25" s="4"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="102"/>
       <c r="I25" s="44"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -6735,12 +6739,12 @@
     </row>
     <row r="26" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B26" s="4"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="29"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -6775,14 +6779,14 @@
     </row>
     <row r="27" spans="2:39" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B27" s="4"/>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="47" t="s">
         <v>28</v>
       </c>
@@ -6819,12 +6823,12 @@
     </row>
     <row r="28" spans="2:39" ht="18" customHeight="1" thickTop="1">
       <c r="B28" s="4"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="102"/>
       <c r="I28" s="28"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -6859,12 +6863,12 @@
     </row>
     <row r="29" spans="2:39" ht="18" customHeight="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="102"/>
       <c r="I29" s="44"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -6899,12 +6903,12 @@
     </row>
     <row r="30" spans="2:39" ht="18" customHeight="1" thickBot="1">
       <c r="B30" s="4"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="29"/>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -6965,17 +6969,17 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="94" t="s">
+      <c r="AC31" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="111"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="97" t="s">
+      <c r="AG31" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="99"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="90"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -7103,6 +7107,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="AG31:AI31"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C23:H26"/>
@@ -7119,8 +7125,6 @@
     <mergeCell ref="D15:F16"/>
     <mergeCell ref="D17:F18"/>
     <mergeCell ref="D19:F20"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="AC31:AE31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7135,9 +7139,9 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="13" max="13" width="3.125" style="66"/>
+    <col min="13" max="13" width="3.08203125" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
@@ -8112,7 +8116,7 @@
       <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -8155,14 +8159,14 @@
     </row>
     <row r="3" spans="2:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -8196,12 +8200,12 @@
     </row>
     <row r="4" spans="2:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -8395,17 +8399,17 @@
       <c r="Z8" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="112">
+      <c r="AA8" s="121">
         <v>0.375</v>
       </c>
-      <c r="AB8" s="113"/>
+      <c r="AB8" s="122"/>
       <c r="AC8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="112">
+      <c r="AD8" s="121">
         <v>0.75</v>
       </c>
-      <c r="AE8" s="113"/>
+      <c r="AE8" s="122"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -8495,15 +8499,15 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="114" t="s">
+      <c r="AG10" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="115"/>
+      <c r="AH10" s="120"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="122" t="s">
+      <c r="AJ10" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AK10" s="123"/>
+      <c r="AK10" s="113"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="2:38" ht="18" customHeight="1">
@@ -8629,15 +8633,15 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="114" t="s">
+      <c r="AG13" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AH13" s="115"/>
+      <c r="AH13" s="120"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="122" t="s">
+      <c r="AJ13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" s="123"/>
+      <c r="AK13" s="113"/>
       <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="2:38" ht="18" customHeight="1">
@@ -8715,17 +8719,17 @@
       <c r="Z15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="112">
+      <c r="AA15" s="121">
         <v>0.375</v>
       </c>
-      <c r="AB15" s="113"/>
+      <c r="AB15" s="122"/>
       <c r="AC15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AD15" s="112">
+      <c r="AD15" s="121">
         <v>0.75</v>
       </c>
-      <c r="AE15" s="113"/>
+      <c r="AE15" s="122"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -8772,15 +8776,15 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="114" t="s">
+      <c r="AG16" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="115"/>
+      <c r="AH16" s="120"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="122" t="s">
+      <c r="AJ16" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="123"/>
+      <c r="AK16" s="113"/>
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:38" ht="18" customHeight="1">
@@ -8956,19 +8960,19 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="125" t="s">
+      <c r="N21" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="124" t="s">
+      <c r="R21" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -9258,12 +9262,12 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="126" t="s">
+      <c r="AH27" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="AI27" s="127"/>
-      <c r="AJ27" s="127"/>
-      <c r="AK27" s="128"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="118"/>
       <c r="AL27" s="6"/>
     </row>
     <row r="28" spans="2:38" ht="18" customHeight="1">
@@ -9307,6 +9311,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AJ16:AK16"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="N21:P21"/>
@@ -9316,11 +9325,6 @@
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="C3:H4"/>
-    <mergeCell ref="AG16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9335,7 +9339,7 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:38" ht="18" customHeight="1">
       <c r="B2" s="1"/>
@@ -9378,14 +9382,14 @@
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -9419,12 +9423,12 @@
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -9607,11 +9611,11 @@
         <v>60</v>
       </c>
       <c r="R8" s="5"/>
-      <c r="S8" s="112">
+      <c r="S8" s="121">
         <v>0.58333333333333337</v>
       </c>
       <c r="T8" s="129"/>
-      <c r="U8" s="113"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5">
         <v>1</v>
@@ -9705,15 +9709,15 @@
       <c r="AB10" s="12"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="114" t="s">
+      <c r="AE10" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="115"/>
+      <c r="AF10" s="120"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="122" t="s">
+      <c r="AH10" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="123"/>
+      <c r="AI10" s="113"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="68"/>
       <c r="AL10" s="6"/>
@@ -9874,15 +9878,15 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="114" t="s">
+      <c r="AE14" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="115"/>
+      <c r="AF14" s="120"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="122" t="s">
+      <c r="AH14" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="123"/>
+      <c r="AI14" s="113"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="68"/>
       <c r="AL14" s="6"/>
@@ -10045,15 +10049,15 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="114" t="s">
+      <c r="AE18" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="115"/>
+      <c r="AF18" s="120"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="122" t="s">
+      <c r="AH18" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="123"/>
+      <c r="AI18" s="113"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="68"/>
       <c r="AL18" s="6"/>
@@ -10127,14 +10131,14 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
       <c r="AB22" s="12"/>
-      <c r="AE22" s="114" t="s">
+      <c r="AE22" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="115"/>
-      <c r="AH22" s="122" t="s">
+      <c r="AF22" s="120"/>
+      <c r="AH22" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="123"/>
+      <c r="AI22" s="113"/>
       <c r="AK22" s="64"/>
       <c r="AL22" s="6"/>
     </row>
@@ -10403,11 +10407,11 @@
         <v>41</v>
       </c>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="126" t="s">
+      <c r="AH29" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="AI29" s="127"/>
-      <c r="AJ29" s="128"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="118"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="6"/>
     </row>
@@ -10477,9 +10481,9 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="19" max="20" width="3.125" style="66"/>
+    <col min="19" max="20" width="3.08203125" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="18" customHeight="1">
@@ -10523,14 +10527,14 @@
     </row>
     <row r="3" spans="2:38" ht="18" customHeight="1">
       <c r="B3" s="4"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -10564,12 +10568,12 @@
     </row>
     <row r="4" spans="2:38" ht="18" customHeight="1">
       <c r="B4" s="4"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -11053,7 +11057,7 @@
       </c>
       <c r="Q15" s="129"/>
       <c r="R15" s="129"/>
-      <c r="S15" s="113"/>
+      <c r="S15" s="122"/>
       <c r="T15" s="51"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -11094,7 +11098,7 @@
       </c>
       <c r="Q16" s="129"/>
       <c r="R16" s="129"/>
-      <c r="S16" s="113"/>
+      <c r="S16" s="122"/>
       <c r="T16" s="51"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -11135,7 +11139,7 @@
       </c>
       <c r="Q17" s="129"/>
       <c r="R17" s="129"/>
-      <c r="S17" s="113"/>
+      <c r="S17" s="122"/>
       <c r="T17" s="51"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -11724,9 +11728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96893A12-5BC5-43FF-A3B1-B33E7FDC7DBA}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2" s="79" customFormat="1">
       <c r="B2" s="79" t="s">
